--- a/天然气/eta/JKM_月度数据.xlsx
+++ b/天然气/eta/JKM_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>10.9143</v>
+        <v>10.5295</v>
       </c>
     </row>
     <row r="3">
@@ -471,7 +471,7 @@
         <v>10.9903</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0862</v>
+        <v>11.0749</v>
       </c>
     </row>
     <row r="4">
